--- a/measurements/detector_signals/cycle_1/66/radial_measurements_all.xlsx
+++ b/measurements/detector_signals/cycle_1/66/radial_measurements_all.xlsx
@@ -940,13 +940,13 @@
         <v>8</v>
       </c>
       <c r="F3" t="n">
-        <v>0.535144377296</v>
+        <v>0.529556305049</v>
       </c>
       <c r="G3" t="n">
-        <v>0.527430267063</v>
+        <v>0.527430267062</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.0077141102334</v>
+        <v>-0.00212603798662</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -966,13 +966,13 @@
         <v>10</v>
       </c>
       <c r="F4" t="n">
-        <v>0.668722915361</v>
+        <v>0.654348782905</v>
       </c>
       <c r="G4" t="n">
         <v>0.657044510386</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.0116784049749</v>
+        <v>0.00269572748083</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -992,13 +992,13 @@
         <v>7</v>
       </c>
       <c r="F5" t="n">
-        <v>0.763783561305</v>
+        <v>0.732502288576</v>
       </c>
       <c r="G5" t="n">
         <v>0.736807121662</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.0269764396429</v>
+        <v>0.00430483308581</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1018,13 +1018,13 @@
         <v>13</v>
       </c>
       <c r="F6" t="n">
-        <v>0.711460745668</v>
+        <v>0.710737131903</v>
       </c>
       <c r="G6" t="n">
         <v>0.712878338279</v>
       </c>
       <c r="H6" t="n">
-        <v>0.00141759261132</v>
+        <v>0.00214120637602</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1044,13 +1044,13 @@
         <v>15</v>
       </c>
       <c r="F7" t="n">
-        <v>0.763783561305</v>
+        <v>0.732502288576</v>
       </c>
       <c r="G7" t="n">
         <v>0.736807121662</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.0269764396429</v>
+        <v>0.00430483308581</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1070,13 +1070,13 @@
         <v>9</v>
       </c>
       <c r="F8" t="n">
-        <v>0.668722915361</v>
+        <v>0.654348782905</v>
       </c>
       <c r="G8" t="n">
         <v>0.657044510386</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.0116784049749</v>
+        <v>0.00269572748083</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1096,13 +1096,13 @@
         <v>18</v>
       </c>
       <c r="F9" t="n">
-        <v>0.535144377296</v>
+        <v>0.529556305049</v>
       </c>
       <c r="G9" t="n">
-        <v>0.527430267063</v>
+        <v>0.527430267062</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.0077141102334</v>
+        <v>-0.00212603798662</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1122,13 +1122,13 @@
         <v>11</v>
       </c>
       <c r="F10" t="n">
-        <v>0.6023024218950001</v>
+        <v>0.587178731796</v>
       </c>
       <c r="G10" t="n">
         <v>0.559335311573</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.042967110322</v>
+        <v>-0.0278434202232</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -1148,13 +1148,13 @@
         <v>21</v>
       </c>
       <c r="F11" t="n">
-        <v>0.79874422439</v>
+        <v>0.794637782529</v>
       </c>
       <c r="G11" t="n">
         <v>0.789649851632</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.00909437275752</v>
+        <v>-0.00498793089686</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -1174,13 +1174,13 @@
         <v>12</v>
       </c>
       <c r="F12" t="n">
-        <v>1.2189248262</v>
+        <v>1.17961904074</v>
       </c>
       <c r="G12" t="n">
         <v>1.17151335312</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.0474114730836</v>
+        <v>-0.00810568762413</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -1200,13 +1200,13 @@
         <v>24</v>
       </c>
       <c r="F13" t="n">
-        <v>0.808964073345</v>
+        <v>0.812996433907</v>
       </c>
       <c r="G13" t="n">
         <v>0.831525222552</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0225611492074</v>
+        <v>0.018528788645</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -1226,13 +1226,13 @@
         <v>14</v>
       </c>
       <c r="F14" t="n">
-        <v>1.26817403424</v>
+        <v>1.21638315689</v>
       </c>
       <c r="G14" t="n">
         <v>1.20541246291</v>
       </c>
       <c r="H14" t="n">
-        <v>-0.0627615713313</v>
+        <v>-0.0109706939818</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -1252,13 +1252,13 @@
         <v>27</v>
       </c>
       <c r="F15" t="n">
-        <v>0.808964073345</v>
+        <v>0.812996433907</v>
       </c>
       <c r="G15" t="n">
         <v>0.831525222552</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0225611492074</v>
+        <v>0.018528788645</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1278,13 +1278,13 @@
         <v>29</v>
       </c>
       <c r="F16" t="n">
-        <v>1.2189248262</v>
+        <v>1.17961904074</v>
       </c>
       <c r="G16" t="n">
         <v>1.17151335312</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.0474114730836</v>
+        <v>-0.00810568762413</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1304,13 +1304,13 @@
         <v>31</v>
       </c>
       <c r="F17" t="n">
-        <v>0.79874422439</v>
+        <v>0.794637782529</v>
       </c>
       <c r="G17" t="n">
         <v>0.789649851632</v>
       </c>
       <c r="H17" t="n">
-        <v>-0.00909437275752</v>
+        <v>-0.00498793089686</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1330,13 +1330,13 @@
         <v>33</v>
       </c>
       <c r="F18" t="n">
-        <v>0.6023024218950001</v>
+        <v>0.587178731796</v>
       </c>
       <c r="G18" t="n">
         <v>0.559335311573</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.042967110322</v>
+        <v>-0.0278434202232</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1356,13 +1356,13 @@
         <v>35</v>
       </c>
       <c r="F19" t="n">
-        <v>0.6023024218950001</v>
+        <v>0.587178731796</v>
       </c>
       <c r="G19" t="n">
         <v>0.559335311573</v>
       </c>
       <c r="H19" t="n">
-        <v>-0.042967110322</v>
+        <v>-0.0278434202232</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1382,13 +1382,13 @@
         <v>37</v>
       </c>
       <c r="F20" t="n">
-        <v>0.704318821746</v>
+        <v>0.710320073036</v>
       </c>
       <c r="G20" t="n">
-        <v>0.687952522256</v>
+        <v>0.687952522255</v>
       </c>
       <c r="H20" t="n">
-        <v>-0.0163662994904</v>
+        <v>-0.0223675507807</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1408,13 +1408,13 @@
         <v>39</v>
       </c>
       <c r="F21" t="n">
-        <v>1.28854055192</v>
+        <v>1.25607737494</v>
       </c>
       <c r="G21" t="n">
         <v>1.25027893175</v>
       </c>
       <c r="H21" t="n">
-        <v>-0.0382616201686</v>
+        <v>-0.00579844318911</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1434,13 +1434,13 @@
         <v>41</v>
       </c>
       <c r="F22" t="n">
-        <v>0.841401990225</v>
+        <v>0.96412917697</v>
       </c>
       <c r="G22" t="n">
-        <v>0.964130563799</v>
+        <v>0.964130563798</v>
       </c>
       <c r="H22" t="n">
-        <v>0.122728573574</v>
+        <v>1.38682833406e-06</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1460,13 +1460,13 @@
         <v>43</v>
       </c>
       <c r="F23" t="n">
-        <v>1.26831703123</v>
+        <v>1.21107831795</v>
       </c>
       <c r="G23" t="n">
         <v>1.21438575668</v>
       </c>
       <c r="H23" t="n">
-        <v>-0.0539312745528</v>
+        <v>0.0033074387267</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1486,13 +1486,13 @@
         <v>16</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9816446905590001</v>
+        <v>0.959369531904</v>
       </c>
       <c r="G24" t="n">
-        <v>0.96512759644</v>
+        <v>0.965127596439</v>
       </c>
       <c r="H24" t="n">
-        <v>-0.0165170941193</v>
+        <v>0.00575806453528</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1512,13 +1512,13 @@
         <v>46</v>
       </c>
       <c r="F25" t="n">
-        <v>1.26831703123</v>
+        <v>1.21107831795</v>
       </c>
       <c r="G25" t="n">
         <v>1.21438575668</v>
       </c>
       <c r="H25" t="n">
-        <v>-0.0539312745528</v>
+        <v>0.0033074387267</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1538,13 +1538,13 @@
         <v>17</v>
       </c>
       <c r="F26" t="n">
-        <v>0.841401990225</v>
+        <v>0.96412917697</v>
       </c>
       <c r="G26" t="n">
-        <v>0.964130563799</v>
+        <v>0.964130563798</v>
       </c>
       <c r="H26" t="n">
-        <v>0.122728573574</v>
+        <v>1.38682833406e-06</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -1564,13 +1564,13 @@
         <v>49</v>
       </c>
       <c r="F27" t="n">
-        <v>1.28854055192</v>
+        <v>1.25607737494</v>
       </c>
       <c r="G27" t="n">
         <v>1.25027893175</v>
       </c>
       <c r="H27" t="n">
-        <v>-0.0382616201686</v>
+        <v>-0.00579844318911</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -1590,13 +1590,13 @@
         <v>51</v>
       </c>
       <c r="F28" t="n">
-        <v>0.704318821746</v>
+        <v>0.710320073036</v>
       </c>
       <c r="G28" t="n">
-        <v>0.687952522256</v>
+        <v>0.687952522255</v>
       </c>
       <c r="H28" t="n">
-        <v>-0.0163662994904</v>
+        <v>-0.0223675507807</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -1616,13 +1616,13 @@
         <v>19</v>
       </c>
       <c r="F29" t="n">
-        <v>0.6023024218950001</v>
+        <v>0.587178731796</v>
       </c>
       <c r="G29" t="n">
         <v>0.559335311573</v>
       </c>
       <c r="H29" t="n">
-        <v>-0.042967110322</v>
+        <v>-0.0278434202232</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -1642,13 +1642,13 @@
         <v>20</v>
       </c>
       <c r="F30" t="n">
-        <v>0.79874422439</v>
+        <v>0.794637782529</v>
       </c>
       <c r="G30" t="n">
         <v>0.789649851632</v>
       </c>
       <c r="H30" t="n">
-        <v>-0.00909437275752</v>
+        <v>-0.00498793089686</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -1668,13 +1668,13 @@
         <v>55</v>
       </c>
       <c r="F31" t="n">
-        <v>1.23087655616</v>
+        <v>1.19208682739</v>
       </c>
       <c r="G31" t="n">
         <v>1.19444510386</v>
       </c>
       <c r="H31" t="n">
-        <v>-0.0364314523018</v>
+        <v>0.00235827646771</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -1694,13 +1694,13 @@
         <v>57</v>
       </c>
       <c r="F32" t="n">
-        <v>1.28731476434</v>
+        <v>1.2602595229</v>
       </c>
       <c r="G32" t="n">
         <v>1.25327002967</v>
       </c>
       <c r="H32" t="n">
-        <v>-0.0340447346657</v>
+        <v>-0.00698949322626</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -1720,13 +1720,13 @@
         <v>59</v>
       </c>
       <c r="F33" t="n">
-        <v>1.05269400387</v>
+        <v>1.03867118639</v>
       </c>
       <c r="G33" t="n">
         <v>1.04289614243</v>
       </c>
       <c r="H33" t="n">
-        <v>-0.009797861436190001</v>
+        <v>0.00422495604336</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -1746,13 +1746,13 @@
         <v>22</v>
       </c>
       <c r="F34" t="n">
-        <v>1.31026730144</v>
+        <v>1.26473204665</v>
       </c>
       <c r="G34" t="n">
         <v>1.2562611276</v>
       </c>
       <c r="H34" t="n">
-        <v>-0.0540061738429</v>
+        <v>-0.008470919053410001</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -1772,13 +1772,13 @@
         <v>62</v>
       </c>
       <c r="F35" t="n">
-        <v>1.05269400387</v>
+        <v>1.03867118639</v>
       </c>
       <c r="G35" t="n">
         <v>1.04289614243</v>
       </c>
       <c r="H35" t="n">
-        <v>-0.009797861436190001</v>
+        <v>0.00422495604336</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -1798,13 +1798,13 @@
         <v>64</v>
       </c>
       <c r="F36" t="n">
-        <v>1.28731476434</v>
+        <v>1.2602595229</v>
       </c>
       <c r="G36" t="n">
         <v>1.25327002967</v>
       </c>
       <c r="H36" t="n">
-        <v>-0.0340447346657</v>
+        <v>-0.00698949322626</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -1824,13 +1824,13 @@
         <v>66</v>
       </c>
       <c r="F37" t="n">
-        <v>1.23087655616</v>
+        <v>1.19208682739</v>
       </c>
       <c r="G37" t="n">
         <v>1.19444510386</v>
       </c>
       <c r="H37" t="n">
-        <v>-0.0364314523018</v>
+        <v>0.00235827646771</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -1850,13 +1850,13 @@
         <v>68</v>
       </c>
       <c r="F38" t="n">
-        <v>0.79874422439</v>
+        <v>0.794637782529</v>
       </c>
       <c r="G38" t="n">
         <v>0.789649851632</v>
       </c>
       <c r="H38" t="n">
-        <v>-0.00909437275752</v>
+        <v>-0.00498793089686</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -1876,13 +1876,13 @@
         <v>70</v>
       </c>
       <c r="F39" t="n">
-        <v>0.535144377296</v>
+        <v>0.529556305049</v>
       </c>
       <c r="G39" t="n">
-        <v>0.527430267063</v>
+        <v>0.527430267062</v>
       </c>
       <c r="H39" t="n">
-        <v>-0.0077141102334</v>
+        <v>-0.00212603798662</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -1902,13 +1902,13 @@
         <v>72</v>
       </c>
       <c r="F40" t="n">
-        <v>1.28854055192</v>
+        <v>1.25607737494</v>
       </c>
       <c r="G40" t="n">
         <v>1.25027893175</v>
       </c>
       <c r="H40" t="n">
-        <v>-0.0382616201686</v>
+        <v>-0.00579844318911</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -1928,13 +1928,13 @@
         <v>23</v>
       </c>
       <c r="F41" t="n">
-        <v>1.16095631091</v>
+        <v>1.31701707193</v>
       </c>
       <c r="G41" t="n">
         <v>1.29913353116</v>
       </c>
       <c r="H41" t="n">
-        <v>0.138177220248</v>
+        <v>-0.0178835407726</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -1954,13 +1954,13 @@
         <v>75</v>
       </c>
       <c r="F42" t="n">
-        <v>1.06192210328</v>
+        <v>1.05564635606</v>
       </c>
       <c r="G42" t="n">
         <v>1.07280712166</v>
       </c>
       <c r="H42" t="n">
-        <v>0.0108850183823</v>
+        <v>0.0171607656018</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -1980,13 +1980,13 @@
         <v>77</v>
       </c>
       <c r="F43" t="n">
-        <v>1.33160311492</v>
+        <v>1.28758220975</v>
       </c>
       <c r="G43" t="n">
         <v>1.29514540059</v>
       </c>
       <c r="H43" t="n">
-        <v>-0.0364577143258</v>
+        <v>0.00756319084363</v>
       </c>
     </row>
     <row r="44" spans="1:10">
@@ -2006,13 +2006,13 @@
         <v>79</v>
       </c>
       <c r="F44" t="n">
-        <v>0.5639206563519999</v>
+        <v>1.04729648082</v>
       </c>
       <c r="G44" t="n">
         <v>1.06782195846</v>
       </c>
       <c r="H44" t="n">
-        <v>0.503901302106</v>
+        <v>0.0205254776371</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -2032,13 +2032,13 @@
         <v>81</v>
       </c>
       <c r="F45" t="n">
-        <v>1.33160311492</v>
+        <v>1.28758220975</v>
       </c>
       <c r="G45" t="n">
         <v>1.29514540059</v>
       </c>
       <c r="H45" t="n">
-        <v>-0.0364577143258</v>
+        <v>0.00756319084363</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -2058,13 +2058,13 @@
         <v>83</v>
       </c>
       <c r="F46" t="n">
-        <v>1.06192210328</v>
+        <v>1.05564635606</v>
       </c>
       <c r="G46" t="n">
         <v>1.07280712166</v>
       </c>
       <c r="H46" t="n">
-        <v>0.0108850183823</v>
+        <v>0.0171607656018</v>
       </c>
     </row>
     <row r="47" spans="1:10">
@@ -2084,13 +2084,13 @@
         <v>25</v>
       </c>
       <c r="F47" t="n">
-        <v>1.16095631091</v>
+        <v>1.31701707193</v>
       </c>
       <c r="G47" t="n">
         <v>1.29913353116</v>
       </c>
       <c r="H47" t="n">
-        <v>0.138177220248</v>
+        <v>-0.0178835407726</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -2110,13 +2110,13 @@
         <v>26</v>
       </c>
       <c r="F48" t="n">
-        <v>1.28854055192</v>
+        <v>1.25607737494</v>
       </c>
       <c r="G48" t="n">
         <v>1.25027893175</v>
       </c>
       <c r="H48" t="n">
-        <v>-0.0382616201686</v>
+        <v>-0.00579844318911</v>
       </c>
     </row>
     <row r="49" spans="1:10">
@@ -2136,13 +2136,13 @@
         <v>87</v>
       </c>
       <c r="F49" t="n">
-        <v>0.535144377296</v>
+        <v>0.529556305049</v>
       </c>
       <c r="G49" t="n">
-        <v>0.527430267063</v>
+        <v>0.527430267062</v>
       </c>
       <c r="H49" t="n">
-        <v>-0.0077141102334</v>
+        <v>-0.00212603798662</v>
       </c>
     </row>
     <row r="50" spans="1:10">
@@ -2162,13 +2162,13 @@
         <v>28</v>
       </c>
       <c r="F50" t="n">
-        <v>0.668722915361</v>
+        <v>0.654348782905</v>
       </c>
       <c r="G50" t="n">
         <v>0.657044510386</v>
       </c>
       <c r="H50" t="n">
-        <v>-0.0116784049749</v>
+        <v>0.00269572748083</v>
       </c>
     </row>
     <row r="51" spans="1:10">
@@ -2188,13 +2188,13 @@
         <v>90</v>
       </c>
       <c r="F51" t="n">
-        <v>1.2189248262</v>
+        <v>1.17961904074</v>
       </c>
       <c r="G51" t="n">
         <v>1.17151335312</v>
       </c>
       <c r="H51" t="n">
-        <v>-0.0474114730836</v>
+        <v>-0.00810568762413</v>
       </c>
     </row>
     <row r="52" spans="1:10">
@@ -2214,13 +2214,13 @@
         <v>30</v>
       </c>
       <c r="F52" t="n">
-        <v>0.841401990225</v>
+        <v>0.96412917697</v>
       </c>
       <c r="G52" t="n">
-        <v>0.964130563799</v>
+        <v>0.964130563798</v>
       </c>
       <c r="H52" t="n">
-        <v>0.122728573574</v>
+        <v>1.38682833406e-06</v>
       </c>
     </row>
     <row r="53" spans="1:10">
@@ -2240,13 +2240,13 @@
         <v>93</v>
       </c>
       <c r="F53" t="n">
-        <v>1.28731476434</v>
+        <v>1.2602595229</v>
       </c>
       <c r="G53" t="n">
         <v>1.25327002967</v>
       </c>
       <c r="H53" t="n">
-        <v>-0.0340447346657</v>
+        <v>-0.00698949322626</v>
       </c>
     </row>
     <row r="54" spans="1:10">
@@ -2254,13 +2254,13 @@
         <v>94</v>
       </c>
       <c r="F54" t="n">
-        <v>1.06192210328</v>
+        <v>1.05564635606</v>
       </c>
       <c r="G54" t="n">
         <v>1.07280712166</v>
       </c>
       <c r="H54" t="n">
-        <v>0.0108850183823</v>
+        <v>0.0171607656018</v>
       </c>
     </row>
     <row r="55" spans="1:10">
@@ -2268,13 +2268,13 @@
         <v>32</v>
       </c>
       <c r="F55" t="n">
-        <v>1.3422980548</v>
+        <v>1.31806706339</v>
       </c>
       <c r="G55" t="n">
         <v>1.30312166172</v>
       </c>
       <c r="H55" t="n">
-        <v>-0.0391763930782</v>
+        <v>-0.0149454016688</v>
       </c>
     </row>
     <row r="56" spans="1:10">
@@ -2282,13 +2282,13 @@
         <v>95</v>
       </c>
       <c r="F56" t="n">
-        <v>1.0700569974</v>
+        <v>1.04478611992</v>
       </c>
       <c r="G56" t="n">
         <v>1.06084272997</v>
       </c>
       <c r="H56" t="n">
-        <v>-0.00921426742909</v>
+        <v>0.0160566100505</v>
       </c>
     </row>
     <row r="57" spans="1:10">
@@ -2296,13 +2296,13 @@
         <v>34</v>
       </c>
       <c r="F57" t="n">
-        <v>1.30174718938</v>
+        <v>1.26447902579</v>
       </c>
       <c r="G57" t="n">
         <v>1.26523442137</v>
       </c>
       <c r="H57" t="n">
-        <v>-0.0365127680143</v>
+        <v>0.000755395575135</v>
       </c>
     </row>
     <row r="58" spans="1:10">
@@ -2310,13 +2310,13 @@
         <v>96</v>
       </c>
       <c r="F58" t="n">
-        <v>1.0700569974</v>
+        <v>1.04478611992</v>
       </c>
       <c r="G58" t="n">
         <v>1.06084272997</v>
       </c>
       <c r="H58" t="n">
-        <v>-0.00921426742909</v>
+        <v>0.0160566100505</v>
       </c>
     </row>
     <row r="59" spans="1:10">
@@ -2324,13 +2324,13 @@
         <v>97</v>
       </c>
       <c r="F59" t="n">
-        <v>1.3422980548</v>
+        <v>1.31806706339</v>
       </c>
       <c r="G59" t="n">
         <v>1.30312166172</v>
       </c>
       <c r="H59" t="n">
-        <v>-0.0391763930782</v>
+        <v>-0.0149454016688</v>
       </c>
     </row>
     <row r="60" spans="1:10">
@@ -2338,13 +2338,13 @@
         <v>98</v>
       </c>
       <c r="F60" t="n">
-        <v>1.06192210328</v>
+        <v>1.05564635606</v>
       </c>
       <c r="G60" t="n">
         <v>1.07280712166</v>
       </c>
       <c r="H60" t="n">
-        <v>0.0108850183823</v>
+        <v>0.0171607656018</v>
       </c>
     </row>
     <row r="61" spans="1:10">
@@ -2352,13 +2352,13 @@
         <v>99</v>
       </c>
       <c r="F61" t="n">
-        <v>1.28731476434</v>
+        <v>1.2602595229</v>
       </c>
       <c r="G61" t="n">
         <v>1.25327002967</v>
       </c>
       <c r="H61" t="n">
-        <v>-0.0340447346657</v>
+        <v>-0.00698949322626</v>
       </c>
     </row>
     <row r="62" spans="1:10">
@@ -2366,13 +2366,13 @@
         <v>100</v>
       </c>
       <c r="F62" t="n">
-        <v>0.841401990225</v>
+        <v>0.96412917697</v>
       </c>
       <c r="G62" t="n">
-        <v>0.964130563799</v>
+        <v>0.964130563798</v>
       </c>
       <c r="H62" t="n">
-        <v>0.122728573574</v>
+        <v>1.38682833406e-06</v>
       </c>
     </row>
     <row r="63" spans="1:10">
@@ -2380,13 +2380,13 @@
         <v>36</v>
       </c>
       <c r="F63" t="n">
-        <v>1.2189248262</v>
+        <v>1.17961904074</v>
       </c>
       <c r="G63" t="n">
         <v>1.17151335312</v>
       </c>
       <c r="H63" t="n">
-        <v>-0.0474114730836</v>
+        <v>-0.00810568762413</v>
       </c>
     </row>
     <row r="64" spans="1:10">
@@ -2394,13 +2394,13 @@
         <v>101</v>
       </c>
       <c r="F64" t="n">
-        <v>0.668722915361</v>
+        <v>0.654348782905</v>
       </c>
       <c r="G64" t="n">
         <v>0.657044510386</v>
       </c>
       <c r="H64" t="n">
-        <v>-0.0116784049749</v>
+        <v>0.00269572748083</v>
       </c>
     </row>
     <row r="65" spans="1:10">
@@ -2408,13 +2408,13 @@
         <v>102</v>
       </c>
       <c r="F65" t="n">
-        <v>0.763783561305</v>
+        <v>0.732502288576</v>
       </c>
       <c r="G65" t="n">
         <v>0.736807121662</v>
       </c>
       <c r="H65" t="n">
-        <v>-0.0269764396429</v>
+        <v>0.00430483308581</v>
       </c>
     </row>
     <row r="66" spans="1:10">
@@ -2422,13 +2422,13 @@
         <v>103</v>
       </c>
       <c r="F66" t="n">
-        <v>0.808964073345</v>
+        <v>0.812996433907</v>
       </c>
       <c r="G66" t="n">
         <v>0.831525222552</v>
       </c>
       <c r="H66" t="n">
-        <v>0.0225611492074</v>
+        <v>0.018528788645</v>
       </c>
     </row>
     <row r="67" spans="1:10">
@@ -2436,13 +2436,13 @@
         <v>104</v>
       </c>
       <c r="F67" t="n">
-        <v>1.26831703123</v>
+        <v>1.21107831795</v>
       </c>
       <c r="G67" t="n">
         <v>1.21438575668</v>
       </c>
       <c r="H67" t="n">
-        <v>-0.0539312745528</v>
+        <v>0.0033074387267</v>
       </c>
     </row>
     <row r="68" spans="1:10">
@@ -2450,13 +2450,13 @@
         <v>38</v>
       </c>
       <c r="F68" t="n">
-        <v>1.05269400387</v>
+        <v>1.03867118639</v>
       </c>
       <c r="G68" t="n">
         <v>1.04289614243</v>
       </c>
       <c r="H68" t="n">
-        <v>-0.009797861436190001</v>
+        <v>0.00422495604336</v>
       </c>
     </row>
     <row r="69" spans="1:10">
@@ -2464,13 +2464,13 @@
         <v>105</v>
       </c>
       <c r="F69" t="n">
-        <v>1.33160311492</v>
+        <v>1.28758220975</v>
       </c>
       <c r="G69" t="n">
         <v>1.29514540059</v>
       </c>
       <c r="H69" t="n">
-        <v>-0.0364577143258</v>
+        <v>0.00756319084363</v>
       </c>
     </row>
     <row r="70" spans="1:10">
@@ -2478,13 +2478,13 @@
         <v>106</v>
       </c>
       <c r="F70" t="n">
-        <v>1.0700569974</v>
+        <v>1.04478611992</v>
       </c>
       <c r="G70" t="n">
         <v>1.06084272997</v>
       </c>
       <c r="H70" t="n">
-        <v>-0.00921426742909</v>
+        <v>0.0160566100505</v>
       </c>
     </row>
     <row r="71" spans="1:10">
@@ -2492,13 +2492,13 @@
         <v>40</v>
       </c>
       <c r="F71" t="n">
-        <v>1.26435862614</v>
+        <v>1.23589538847</v>
       </c>
       <c r="G71" t="n">
         <v>1.23133531157</v>
       </c>
       <c r="H71" t="n">
-        <v>-0.0330233145666</v>
+        <v>-0.00456007689715</v>
       </c>
     </row>
     <row r="72" spans="1:10">
@@ -2506,13 +2506,13 @@
         <v>107</v>
       </c>
       <c r="F72" t="n">
-        <v>0.963103098674</v>
+        <v>0.945476941068</v>
       </c>
       <c r="G72" t="n">
         <v>0.957151335312</v>
       </c>
       <c r="H72" t="n">
-        <v>-0.0059517633619</v>
+        <v>0.0116743942437</v>
       </c>
     </row>
     <row r="73" spans="1:10">
@@ -2520,13 +2520,13 @@
         <v>108</v>
       </c>
       <c r="F73" t="n">
-        <v>1.26435862614</v>
+        <v>1.23589538847</v>
       </c>
       <c r="G73" t="n">
         <v>1.23133531157</v>
       </c>
       <c r="H73" t="n">
-        <v>-0.0330233145666</v>
+        <v>-0.00456007689715</v>
       </c>
     </row>
     <row r="74" spans="1:10">
@@ -2534,13 +2534,13 @@
         <v>42</v>
       </c>
       <c r="F74" t="n">
-        <v>1.0700569974</v>
+        <v>1.04478611992</v>
       </c>
       <c r="G74" t="n">
         <v>1.06084272997</v>
       </c>
       <c r="H74" t="n">
-        <v>-0.00921426742909</v>
+        <v>0.0160566100505</v>
       </c>
     </row>
     <row r="75" spans="1:10">
@@ -2548,13 +2548,13 @@
         <v>109</v>
       </c>
       <c r="F75" t="n">
-        <v>1.33160311492</v>
+        <v>1.28758220975</v>
       </c>
       <c r="G75" t="n">
         <v>1.29514540059</v>
       </c>
       <c r="H75" t="n">
-        <v>-0.0364577143258</v>
+        <v>0.00756319084363</v>
       </c>
     </row>
     <row r="76" spans="1:10">
@@ -2562,13 +2562,13 @@
         <v>110</v>
       </c>
       <c r="F76" t="n">
-        <v>1.05269400387</v>
+        <v>1.03867118639</v>
       </c>
       <c r="G76" t="n">
         <v>1.04289614243</v>
       </c>
       <c r="H76" t="n">
-        <v>-0.009797861436190001</v>
+        <v>0.00422495604336</v>
       </c>
     </row>
     <row r="77" spans="1:10">
@@ -2576,13 +2576,13 @@
         <v>44</v>
       </c>
       <c r="F77" t="n">
-        <v>1.26831703123</v>
+        <v>1.21107831795</v>
       </c>
       <c r="G77" t="n">
         <v>1.21438575668</v>
       </c>
       <c r="H77" t="n">
-        <v>-0.0539312745528</v>
+        <v>0.0033074387267</v>
       </c>
     </row>
     <row r="78" spans="1:10">
@@ -2590,13 +2590,13 @@
         <v>111</v>
       </c>
       <c r="F78" t="n">
-        <v>0.808964073345</v>
+        <v>0.812996433907</v>
       </c>
       <c r="G78" t="n">
         <v>0.831525222552</v>
       </c>
       <c r="H78" t="n">
-        <v>0.0225611492074</v>
+        <v>0.018528788645</v>
       </c>
     </row>
     <row r="79" spans="1:10">
@@ -2604,13 +2604,13 @@
         <v>112</v>
       </c>
       <c r="F79" t="n">
-        <v>0.763783561305</v>
+        <v>0.732502288576</v>
       </c>
       <c r="G79" t="n">
         <v>0.736807121662</v>
       </c>
       <c r="H79" t="n">
-        <v>-0.0269764396429</v>
+        <v>0.00430483308581</v>
       </c>
     </row>
     <row r="80" spans="1:10">
@@ -2618,13 +2618,13 @@
         <v>45</v>
       </c>
       <c r="F80" t="n">
-        <v>0.711460745668</v>
+        <v>0.710737131903</v>
       </c>
       <c r="G80" t="n">
         <v>0.712878338279</v>
       </c>
       <c r="H80" t="n">
-        <v>0.00141759261132</v>
+        <v>0.00214120637602</v>
       </c>
     </row>
     <row r="81" spans="1:10">
@@ -2632,13 +2632,13 @@
         <v>113</v>
       </c>
       <c r="F81" t="n">
-        <v>1.26817403424</v>
+        <v>1.21638315689</v>
       </c>
       <c r="G81" t="n">
         <v>1.20541246291</v>
       </c>
       <c r="H81" t="n">
-        <v>-0.0627615713313</v>
+        <v>-0.0109706939818</v>
       </c>
     </row>
     <row r="82" spans="1:10">
@@ -2646,13 +2646,13 @@
         <v>47</v>
       </c>
       <c r="F82" t="n">
-        <v>0.9816446905590001</v>
+        <v>0.959369531904</v>
       </c>
       <c r="G82" t="n">
-        <v>0.96512759644</v>
+        <v>0.965127596439</v>
       </c>
       <c r="H82" t="n">
-        <v>-0.0165170941193</v>
+        <v>0.00575806453528</v>
       </c>
     </row>
     <row r="83" spans="1:10">
@@ -2660,13 +2660,13 @@
         <v>114</v>
       </c>
       <c r="F83" t="n">
-        <v>1.31026730144</v>
+        <v>1.26473204665</v>
       </c>
       <c r="G83" t="n">
         <v>1.2562611276</v>
       </c>
       <c r="H83" t="n">
-        <v>-0.0540061738429</v>
+        <v>-0.008470919053410001</v>
       </c>
     </row>
     <row r="84" spans="1:10">
@@ -2674,13 +2674,13 @@
         <v>48</v>
       </c>
       <c r="F84" t="n">
-        <v>0.5639206563519999</v>
+        <v>1.04729648082</v>
       </c>
       <c r="G84" t="n">
         <v>1.06782195846</v>
       </c>
       <c r="H84" t="n">
-        <v>0.503901302106</v>
+        <v>0.0205254776371</v>
       </c>
     </row>
     <row r="85" spans="1:10">
@@ -2688,13 +2688,13 @@
         <v>115</v>
       </c>
       <c r="F85" t="n">
-        <v>1.30174718938</v>
+        <v>1.26447902579</v>
       </c>
       <c r="G85" t="n">
         <v>1.26523442137</v>
       </c>
       <c r="H85" t="n">
-        <v>-0.0365127680143</v>
+        <v>0.000755395575135</v>
       </c>
     </row>
     <row r="86" spans="1:10">
@@ -2702,13 +2702,13 @@
         <v>50</v>
       </c>
       <c r="F86" t="n">
-        <v>0.963103098674</v>
+        <v>0.945476941068</v>
       </c>
       <c r="G86" t="n">
         <v>0.957151335312</v>
       </c>
       <c r="H86" t="n">
-        <v>-0.0059517633619</v>
+        <v>0.0116743942437</v>
       </c>
     </row>
     <row r="87" spans="1:10">
@@ -2716,13 +2716,13 @@
         <v>116</v>
       </c>
       <c r="F87" t="n">
-        <v>0.963103098674</v>
+        <v>0.945476941068</v>
       </c>
       <c r="G87" t="n">
         <v>0.957151335312</v>
       </c>
       <c r="H87" t="n">
-        <v>-0.0059517633619</v>
+        <v>0.0116743942437</v>
       </c>
     </row>
     <row r="88" spans="1:10">
@@ -2730,13 +2730,13 @@
         <v>52</v>
       </c>
       <c r="F88" t="n">
-        <v>1.30174718938</v>
+        <v>1.26447902579</v>
       </c>
       <c r="G88" t="n">
         <v>1.26523442137</v>
       </c>
       <c r="H88" t="n">
-        <v>-0.0365127680143</v>
+        <v>0.000755395575135</v>
       </c>
     </row>
     <row r="89" spans="1:10">
@@ -2744,13 +2744,13 @@
         <v>117</v>
       </c>
       <c r="F89" t="n">
-        <v>0.5639206563519999</v>
+        <v>1.04729648082</v>
       </c>
       <c r="G89" t="n">
         <v>1.06782195846</v>
       </c>
       <c r="H89" t="n">
-        <v>0.503901302106</v>
+        <v>0.0205254776371</v>
       </c>
     </row>
     <row r="90" spans="1:10">
@@ -2758,13 +2758,13 @@
         <v>53</v>
       </c>
       <c r="F90" t="n">
-        <v>1.31026730144</v>
+        <v>1.26473204665</v>
       </c>
       <c r="G90" t="n">
         <v>1.2562611276</v>
       </c>
       <c r="H90" t="n">
-        <v>-0.0540061738429</v>
+        <v>-0.008470919053410001</v>
       </c>
     </row>
     <row r="91" spans="1:10">
@@ -2772,13 +2772,13 @@
         <v>54</v>
       </c>
       <c r="F91" t="n">
-        <v>0.9816446905590001</v>
+        <v>0.959369531904</v>
       </c>
       <c r="G91" t="n">
-        <v>0.96512759644</v>
+        <v>0.965127596439</v>
       </c>
       <c r="H91" t="n">
-        <v>-0.0165170941193</v>
+        <v>0.00575806453528</v>
       </c>
     </row>
     <row r="92" spans="1:10">
@@ -2786,13 +2786,13 @@
         <v>56</v>
       </c>
       <c r="F92" t="n">
-        <v>1.26817403424</v>
+        <v>1.21638315689</v>
       </c>
       <c r="G92" t="n">
         <v>1.20541246291</v>
       </c>
       <c r="H92" t="n">
-        <v>-0.0627615713313</v>
+        <v>-0.0109706939818</v>
       </c>
     </row>
     <row r="93" spans="1:10">
@@ -2800,13 +2800,13 @@
         <v>118</v>
       </c>
       <c r="F93" t="n">
-        <v>0.711460745668</v>
+        <v>0.710737131903</v>
       </c>
       <c r="G93" t="n">
         <v>0.712878338279</v>
       </c>
       <c r="H93" t="n">
-        <v>0.00141759261132</v>
+        <v>0.00214120637602</v>
       </c>
     </row>
     <row r="94" spans="1:10">
@@ -2814,13 +2814,13 @@
         <v>119</v>
       </c>
       <c r="F94" t="n">
-        <v>0.763783561305</v>
+        <v>0.732502288576</v>
       </c>
       <c r="G94" t="n">
         <v>0.736807121662</v>
       </c>
       <c r="H94" t="n">
-        <v>-0.0269764396429</v>
+        <v>0.00430483308581</v>
       </c>
     </row>
     <row r="95" spans="1:10">
@@ -2828,13 +2828,13 @@
         <v>58</v>
       </c>
       <c r="F95" t="n">
-        <v>0.808964073345</v>
+        <v>0.812996433907</v>
       </c>
       <c r="G95" t="n">
         <v>0.831525222552</v>
       </c>
       <c r="H95" t="n">
-        <v>0.0225611492074</v>
+        <v>0.018528788645</v>
       </c>
     </row>
     <row r="96" spans="1:10">
@@ -2842,13 +2842,13 @@
         <v>120</v>
       </c>
       <c r="F96" t="n">
-        <v>1.26831703123</v>
+        <v>1.21107831795</v>
       </c>
       <c r="G96" t="n">
         <v>1.21438575668</v>
       </c>
       <c r="H96" t="n">
-        <v>-0.0539312745528</v>
+        <v>0.0033074387267</v>
       </c>
     </row>
     <row r="97" spans="1:10">
@@ -2856,13 +2856,13 @@
         <v>121</v>
       </c>
       <c r="F97" t="n">
-        <v>1.05269400387</v>
+        <v>1.03867118639</v>
       </c>
       <c r="G97" t="n">
         <v>1.04289614243</v>
       </c>
       <c r="H97" t="n">
-        <v>-0.009797861436190001</v>
+        <v>0.00422495604336</v>
       </c>
     </row>
     <row r="98" spans="1:10">
@@ -2870,13 +2870,13 @@
         <v>122</v>
       </c>
       <c r="F98" t="n">
-        <v>1.33160311492</v>
+        <v>1.28758220975</v>
       </c>
       <c r="G98" t="n">
         <v>1.29514540059</v>
       </c>
       <c r="H98" t="n">
-        <v>-0.0364577143258</v>
+        <v>0.00756319084363</v>
       </c>
     </row>
     <row r="99" spans="1:10">
@@ -2884,13 +2884,13 @@
         <v>123</v>
       </c>
       <c r="F99" t="n">
-        <v>1.0700569974</v>
+        <v>1.04478611992</v>
       </c>
       <c r="G99" t="n">
         <v>1.06084272997</v>
       </c>
       <c r="H99" t="n">
-        <v>-0.00921426742909</v>
+        <v>0.0160566100505</v>
       </c>
     </row>
     <row r="100" spans="1:10">
@@ -2898,13 +2898,13 @@
         <v>124</v>
       </c>
       <c r="F100" t="n">
-        <v>1.26435862614</v>
+        <v>1.23589538847</v>
       </c>
       <c r="G100" t="n">
         <v>1.23133531157</v>
       </c>
       <c r="H100" t="n">
-        <v>-0.0330233145666</v>
+        <v>-0.00456007689715</v>
       </c>
     </row>
     <row r="101" spans="1:10">
@@ -2912,13 +2912,13 @@
         <v>125</v>
       </c>
       <c r="F101" t="n">
-        <v>0.963103098674</v>
+        <v>0.945476941068</v>
       </c>
       <c r="G101" t="n">
         <v>0.957151335312</v>
       </c>
       <c r="H101" t="n">
-        <v>-0.0059517633619</v>
+        <v>0.0116743942437</v>
       </c>
     </row>
     <row r="102" spans="1:10">
@@ -2926,13 +2926,13 @@
         <v>60</v>
       </c>
       <c r="F102" t="n">
-        <v>1.26435862614</v>
+        <v>1.23589538847</v>
       </c>
       <c r="G102" t="n">
         <v>1.23133531157</v>
       </c>
       <c r="H102" t="n">
-        <v>-0.0330233145666</v>
+        <v>-0.00456007689715</v>
       </c>
     </row>
     <row r="103" spans="1:10">
@@ -2940,13 +2940,13 @@
         <v>126</v>
       </c>
       <c r="F103" t="n">
-        <v>1.0700569974</v>
+        <v>1.04478611992</v>
       </c>
       <c r="G103" t="n">
         <v>1.06084272997</v>
       </c>
       <c r="H103" t="n">
-        <v>-0.00921426742909</v>
+        <v>0.0160566100505</v>
       </c>
     </row>
     <row r="104" spans="1:10">
@@ -2954,13 +2954,13 @@
         <v>61</v>
       </c>
       <c r="F104" t="n">
-        <v>1.33160311492</v>
+        <v>1.28758220975</v>
       </c>
       <c r="G104" t="n">
         <v>1.29514540059</v>
       </c>
       <c r="H104" t="n">
-        <v>-0.0364577143258</v>
+        <v>0.00756319084363</v>
       </c>
     </row>
     <row r="105" spans="1:10">
@@ -2968,13 +2968,13 @@
         <v>127</v>
       </c>
       <c r="F105" t="n">
-        <v>1.05269400387</v>
+        <v>1.03867118639</v>
       </c>
       <c r="G105" t="n">
         <v>1.04289614243</v>
       </c>
       <c r="H105" t="n">
-        <v>-0.009797861436190001</v>
+        <v>0.00422495604336</v>
       </c>
     </row>
     <row r="106" spans="1:10">
@@ -2982,13 +2982,13 @@
         <v>128</v>
       </c>
       <c r="F106" t="n">
-        <v>1.26831703123</v>
+        <v>1.21107831795</v>
       </c>
       <c r="G106" t="n">
         <v>1.21438575668</v>
       </c>
       <c r="H106" t="n">
-        <v>-0.0539312745528</v>
+        <v>0.0033074387267</v>
       </c>
     </row>
     <row r="107" spans="1:10">
@@ -2996,13 +2996,13 @@
         <v>129</v>
       </c>
       <c r="F107" t="n">
-        <v>0.808964073345</v>
+        <v>0.812996433907</v>
       </c>
       <c r="G107" t="n">
         <v>0.831525222552</v>
       </c>
       <c r="H107" t="n">
-        <v>0.0225611492074</v>
+        <v>0.018528788645</v>
       </c>
     </row>
     <row r="108" spans="1:10">
@@ -3010,13 +3010,13 @@
         <v>63</v>
       </c>
       <c r="F108" t="n">
-        <v>0.763783561305</v>
+        <v>0.732502288576</v>
       </c>
       <c r="G108" t="n">
         <v>0.736807121662</v>
       </c>
       <c r="H108" t="n">
-        <v>-0.0269764396429</v>
+        <v>0.00430483308581</v>
       </c>
     </row>
     <row r="109" spans="1:10">
@@ -3024,13 +3024,13 @@
         <v>130</v>
       </c>
       <c r="F109" t="n">
-        <v>0.668722915361</v>
+        <v>0.654348782905</v>
       </c>
       <c r="G109" t="n">
         <v>0.657044510386</v>
       </c>
       <c r="H109" t="n">
-        <v>-0.0116784049749</v>
+        <v>0.00269572748083</v>
       </c>
     </row>
     <row r="110" spans="1:10">
@@ -3038,13 +3038,13 @@
         <v>131</v>
       </c>
       <c r="F110" t="n">
-        <v>1.2189248262</v>
+        <v>1.17961904074</v>
       </c>
       <c r="G110" t="n">
         <v>1.17151335312</v>
       </c>
       <c r="H110" t="n">
-        <v>-0.0474114730836</v>
+        <v>-0.00810568762413</v>
       </c>
     </row>
     <row r="111" spans="1:10">
@@ -3052,13 +3052,13 @@
         <v>132</v>
       </c>
       <c r="F111" t="n">
-        <v>0.841401990225</v>
+        <v>0.96412917697</v>
       </c>
       <c r="G111" t="n">
-        <v>0.964130563799</v>
+        <v>0.964130563798</v>
       </c>
       <c r="H111" t="n">
-        <v>0.122728573574</v>
+        <v>1.38682833406e-06</v>
       </c>
     </row>
     <row r="112" spans="1:10">
@@ -3066,13 +3066,13 @@
         <v>133</v>
       </c>
       <c r="F112" t="n">
-        <v>1.28731476434</v>
+        <v>1.2602595229</v>
       </c>
       <c r="G112" t="n">
         <v>1.25327002967</v>
       </c>
       <c r="H112" t="n">
-        <v>-0.0340447346657</v>
+        <v>-0.00698949322626</v>
       </c>
     </row>
     <row r="113" spans="1:10">
@@ -3080,13 +3080,13 @@
         <v>65</v>
       </c>
       <c r="F113" t="n">
-        <v>1.06192210328</v>
+        <v>1.05564635606</v>
       </c>
       <c r="G113" t="n">
         <v>1.07280712166</v>
       </c>
       <c r="H113" t="n">
-        <v>0.0108850183823</v>
+        <v>0.0171607656018</v>
       </c>
     </row>
     <row r="114" spans="1:10">
@@ -3094,13 +3094,13 @@
         <v>134</v>
       </c>
       <c r="F114" t="n">
-        <v>1.3422980548</v>
+        <v>1.31806706339</v>
       </c>
       <c r="G114" t="n">
         <v>1.30312166172</v>
       </c>
       <c r="H114" t="n">
-        <v>-0.0391763930782</v>
+        <v>-0.0149454016688</v>
       </c>
     </row>
     <row r="115" spans="1:10">
@@ -3108,13 +3108,13 @@
         <v>67</v>
       </c>
       <c r="F115" t="n">
-        <v>1.0700569974</v>
+        <v>1.04478611992</v>
       </c>
       <c r="G115" t="n">
         <v>1.06084272997</v>
       </c>
       <c r="H115" t="n">
-        <v>-0.00921426742909</v>
+        <v>0.0160566100505</v>
       </c>
     </row>
     <row r="116" spans="1:10">
@@ -3122,13 +3122,13 @@
         <v>135</v>
       </c>
       <c r="F116" t="n">
-        <v>1.30174718938</v>
+        <v>1.26447902579</v>
       </c>
       <c r="G116" t="n">
         <v>1.26523442137</v>
       </c>
       <c r="H116" t="n">
-        <v>-0.0365127680143</v>
+        <v>0.000755395575135</v>
       </c>
     </row>
     <row r="117" spans="1:10">
@@ -3136,13 +3136,13 @@
         <v>136</v>
       </c>
       <c r="F117" t="n">
-        <v>1.0700569974</v>
+        <v>1.04478611992</v>
       </c>
       <c r="G117" t="n">
         <v>1.06084272997</v>
       </c>
       <c r="H117" t="n">
-        <v>-0.00921426742909</v>
+        <v>0.0160566100505</v>
       </c>
     </row>
     <row r="118" spans="1:10">
@@ -3150,13 +3150,13 @@
         <v>137</v>
       </c>
       <c r="F118" t="n">
-        <v>1.3422980548</v>
+        <v>1.31806706339</v>
       </c>
       <c r="G118" t="n">
         <v>1.30312166172</v>
       </c>
       <c r="H118" t="n">
-        <v>-0.0391763930782</v>
+        <v>-0.0149454016688</v>
       </c>
     </row>
     <row r="119" spans="1:10">
@@ -3164,13 +3164,13 @@
         <v>138</v>
       </c>
       <c r="F119" t="n">
-        <v>1.06192210328</v>
+        <v>1.05564635606</v>
       </c>
       <c r="G119" t="n">
         <v>1.07280712166</v>
       </c>
       <c r="H119" t="n">
-        <v>0.0108850183823</v>
+        <v>0.0171607656018</v>
       </c>
     </row>
     <row r="120" spans="1:10">
@@ -3178,13 +3178,13 @@
         <v>69</v>
       </c>
       <c r="F120" t="n">
-        <v>1.28731476434</v>
+        <v>1.2602595229</v>
       </c>
       <c r="G120" t="n">
         <v>1.25327002967</v>
       </c>
       <c r="H120" t="n">
-        <v>-0.0340447346657</v>
+        <v>-0.00698949322626</v>
       </c>
     </row>
     <row r="121" spans="1:10">
@@ -3192,13 +3192,13 @@
         <v>139</v>
       </c>
       <c r="F121" t="n">
-        <v>0.841401990225</v>
+        <v>0.96412917697</v>
       </c>
       <c r="G121" t="n">
-        <v>0.964130563799</v>
+        <v>0.964130563798</v>
       </c>
       <c r="H121" t="n">
-        <v>0.122728573574</v>
+        <v>1.38682833406e-06</v>
       </c>
     </row>
     <row r="122" spans="1:10">
@@ -3206,13 +3206,13 @@
         <v>140</v>
       </c>
       <c r="F122" t="n">
-        <v>1.2189248262</v>
+        <v>1.17961904074</v>
       </c>
       <c r="G122" t="n">
         <v>1.17151335312</v>
       </c>
       <c r="H122" t="n">
-        <v>-0.0474114730836</v>
+        <v>-0.00810568762413</v>
       </c>
     </row>
     <row r="123" spans="1:10">
@@ -3220,13 +3220,13 @@
         <v>141</v>
       </c>
       <c r="F123" t="n">
-        <v>0.668722915361</v>
+        <v>0.654348782905</v>
       </c>
       <c r="G123" t="n">
         <v>0.657044510386</v>
       </c>
       <c r="H123" t="n">
-        <v>-0.0116784049749</v>
+        <v>0.00269572748083</v>
       </c>
     </row>
     <row r="124" spans="1:10">
@@ -3234,13 +3234,13 @@
         <v>71</v>
       </c>
       <c r="F124" t="n">
-        <v>0.535144377296</v>
+        <v>0.529556305049</v>
       </c>
       <c r="G124" t="n">
-        <v>0.527430267063</v>
+        <v>0.527430267062</v>
       </c>
       <c r="H124" t="n">
-        <v>-0.0077141102334</v>
+        <v>-0.00212603798662</v>
       </c>
     </row>
     <row r="125" spans="1:10">
@@ -3248,13 +3248,13 @@
         <v>142</v>
       </c>
       <c r="F125" t="n">
-        <v>1.28854055192</v>
+        <v>1.25607737494</v>
       </c>
       <c r="G125" t="n">
         <v>1.25027893175</v>
       </c>
       <c r="H125" t="n">
-        <v>-0.0382616201686</v>
+        <v>-0.00579844318911</v>
       </c>
     </row>
     <row r="126" spans="1:10">
@@ -3262,13 +3262,13 @@
         <v>143</v>
       </c>
       <c r="F126" t="n">
-        <v>1.16095631091</v>
+        <v>1.31701707193</v>
       </c>
       <c r="G126" t="n">
         <v>1.29913353116</v>
       </c>
       <c r="H126" t="n">
-        <v>0.138177220248</v>
+        <v>-0.0178835407726</v>
       </c>
     </row>
     <row r="127" spans="1:10">
@@ -3276,13 +3276,13 @@
         <v>144</v>
       </c>
       <c r="F127" t="n">
-        <v>1.06192210328</v>
+        <v>1.05564635606</v>
       </c>
       <c r="G127" t="n">
         <v>1.07280712166</v>
       </c>
       <c r="H127" t="n">
-        <v>0.0108850183823</v>
+        <v>0.0171607656018</v>
       </c>
     </row>
     <row r="128" spans="1:10">
@@ -3290,13 +3290,13 @@
         <v>145</v>
       </c>
       <c r="F128" t="n">
-        <v>1.33160311492</v>
+        <v>1.28758220975</v>
       </c>
       <c r="G128" t="n">
         <v>1.29514540059</v>
       </c>
       <c r="H128" t="n">
-        <v>-0.0364577143258</v>
+        <v>0.00756319084363</v>
       </c>
     </row>
     <row r="129" spans="1:10">
@@ -3304,13 +3304,13 @@
         <v>146</v>
       </c>
       <c r="F129" t="n">
-        <v>0.5639206563519999</v>
+        <v>1.04729648082</v>
       </c>
       <c r="G129" t="n">
         <v>1.06782195846</v>
       </c>
       <c r="H129" t="n">
-        <v>0.503901302106</v>
+        <v>0.0205254776371</v>
       </c>
     </row>
     <row r="130" spans="1:10">
@@ -3318,13 +3318,13 @@
         <v>147</v>
       </c>
       <c r="F130" t="n">
-        <v>1.33160311492</v>
+        <v>1.28758220975</v>
       </c>
       <c r="G130" t="n">
         <v>1.29514540059</v>
       </c>
       <c r="H130" t="n">
-        <v>-0.0364577143258</v>
+        <v>0.00756319084363</v>
       </c>
     </row>
     <row r="131" spans="1:10">
@@ -3332,13 +3332,13 @@
         <v>148</v>
       </c>
       <c r="F131" t="n">
-        <v>1.06192210328</v>
+        <v>1.05564635606</v>
       </c>
       <c r="G131" t="n">
         <v>1.07280712166</v>
       </c>
       <c r="H131" t="n">
-        <v>0.0108850183823</v>
+        <v>0.0171607656018</v>
       </c>
     </row>
     <row r="132" spans="1:10">
@@ -3346,13 +3346,13 @@
         <v>73</v>
       </c>
       <c r="F132" t="n">
-        <v>1.16095631091</v>
+        <v>1.31701707193</v>
       </c>
       <c r="G132" t="n">
         <v>1.29913353116</v>
       </c>
       <c r="H132" t="n">
-        <v>0.138177220248</v>
+        <v>-0.0178835407726</v>
       </c>
     </row>
     <row r="133" spans="1:10">
@@ -3360,13 +3360,13 @@
         <v>149</v>
       </c>
       <c r="F133" t="n">
-        <v>1.28854055192</v>
+        <v>1.25607737494</v>
       </c>
       <c r="G133" t="n">
         <v>1.25027893175</v>
       </c>
       <c r="H133" t="n">
-        <v>-0.0382616201686</v>
+        <v>-0.00579844318911</v>
       </c>
     </row>
     <row r="134" spans="1:10">
@@ -3374,13 +3374,13 @@
         <v>74</v>
       </c>
       <c r="F134" t="n">
-        <v>0.535144377296</v>
+        <v>0.529556305049</v>
       </c>
       <c r="G134" t="n">
-        <v>0.527430267063</v>
+        <v>0.527430267062</v>
       </c>
       <c r="H134" t="n">
-        <v>-0.0077141102334</v>
+        <v>-0.00212603798662</v>
       </c>
     </row>
     <row r="135" spans="1:10">
@@ -3388,13 +3388,13 @@
         <v>150</v>
       </c>
       <c r="F135" t="n">
-        <v>0.79874422439</v>
+        <v>0.794637782529</v>
       </c>
       <c r="G135" t="n">
         <v>0.789649851632</v>
       </c>
       <c r="H135" t="n">
-        <v>-0.00909437275752</v>
+        <v>-0.00498793089686</v>
       </c>
     </row>
     <row r="136" spans="1:10">
@@ -3402,13 +3402,13 @@
         <v>151</v>
       </c>
       <c r="F136" t="n">
-        <v>1.23087655616</v>
+        <v>1.19208682739</v>
       </c>
       <c r="G136" t="n">
         <v>1.19444510386</v>
       </c>
       <c r="H136" t="n">
-        <v>-0.0364314523018</v>
+        <v>0.00235827646771</v>
       </c>
     </row>
     <row r="137" spans="1:10">
@@ -3416,13 +3416,13 @@
         <v>76</v>
       </c>
       <c r="F137" t="n">
-        <v>1.28731476434</v>
+        <v>1.2602595229</v>
       </c>
       <c r="G137" t="n">
         <v>1.25327002967</v>
       </c>
       <c r="H137" t="n">
-        <v>-0.0340447346657</v>
+        <v>-0.00698949322626</v>
       </c>
     </row>
     <row r="138" spans="1:10">
@@ -3430,13 +3430,13 @@
         <v>152</v>
       </c>
       <c r="F138" t="n">
-        <v>1.05269400387</v>
+        <v>1.03867118639</v>
       </c>
       <c r="G138" t="n">
         <v>1.04289614243</v>
       </c>
       <c r="H138" t="n">
-        <v>-0.009797861436190001</v>
+        <v>0.00422495604336</v>
       </c>
     </row>
     <row r="139" spans="1:10">
@@ -3444,13 +3444,13 @@
         <v>153</v>
       </c>
       <c r="F139" t="n">
-        <v>1.31026730144</v>
+        <v>1.26473204665</v>
       </c>
       <c r="G139" t="n">
         <v>1.2562611276</v>
       </c>
       <c r="H139" t="n">
-        <v>-0.0540061738429</v>
+        <v>-0.008470919053410001</v>
       </c>
     </row>
     <row r="140" spans="1:10">
@@ -3458,13 +3458,13 @@
         <v>78</v>
       </c>
       <c r="F140" t="n">
-        <v>1.05269400387</v>
+        <v>1.03867118639</v>
       </c>
       <c r="G140" t="n">
         <v>1.04289614243</v>
       </c>
       <c r="H140" t="n">
-        <v>-0.009797861436190001</v>
+        <v>0.00422495604336</v>
       </c>
     </row>
     <row r="141" spans="1:10">
@@ -3472,13 +3472,13 @@
         <v>154</v>
       </c>
       <c r="F141" t="n">
-        <v>1.28731476434</v>
+        <v>1.2602595229</v>
       </c>
       <c r="G141" t="n">
         <v>1.25327002967</v>
       </c>
       <c r="H141" t="n">
-        <v>-0.0340447346657</v>
+        <v>-0.00698949322626</v>
       </c>
     </row>
     <row r="142" spans="1:10">
@@ -3486,13 +3486,13 @@
         <v>80</v>
       </c>
       <c r="F142" t="n">
-        <v>1.23087655616</v>
+        <v>1.19208682739</v>
       </c>
       <c r="G142" t="n">
         <v>1.19444510386</v>
       </c>
       <c r="H142" t="n">
-        <v>-0.0364314523018</v>
+        <v>0.00235827646771</v>
       </c>
     </row>
     <row r="143" spans="1:10">
@@ -3500,13 +3500,13 @@
         <v>155</v>
       </c>
       <c r="F143" t="n">
-        <v>0.79874422439</v>
+        <v>0.794637782529</v>
       </c>
       <c r="G143" t="n">
         <v>0.789649851632</v>
       </c>
       <c r="H143" t="n">
-        <v>-0.00909437275752</v>
+        <v>-0.00498793089686</v>
       </c>
     </row>
     <row r="144" spans="1:10">
@@ -3514,13 +3514,13 @@
         <v>156</v>
       </c>
       <c r="F144" t="n">
-        <v>0.6023024218950001</v>
+        <v>0.587178731796</v>
       </c>
       <c r="G144" t="n">
         <v>0.559335311573</v>
       </c>
       <c r="H144" t="n">
-        <v>-0.042967110322</v>
+        <v>-0.0278434202232</v>
       </c>
     </row>
     <row r="145" spans="1:10">
@@ -3528,13 +3528,13 @@
         <v>82</v>
       </c>
       <c r="F145" t="n">
-        <v>0.704318821746</v>
+        <v>0.710320073036</v>
       </c>
       <c r="G145" t="n">
-        <v>0.687952522256</v>
+        <v>0.687952522255</v>
       </c>
       <c r="H145" t="n">
-        <v>-0.0163662994904</v>
+        <v>-0.0223675507807</v>
       </c>
     </row>
     <row r="146" spans="1:10">
@@ -3542,13 +3542,13 @@
         <v>84</v>
       </c>
       <c r="F146" t="n">
-        <v>1.28854055192</v>
+        <v>1.25607737494</v>
       </c>
       <c r="G146" t="n">
         <v>1.25027893175</v>
       </c>
       <c r="H146" t="n">
-        <v>-0.0382616201686</v>
+        <v>-0.00579844318911</v>
       </c>
     </row>
     <row r="147" spans="1:10">
@@ -3556,13 +3556,13 @@
         <v>157</v>
       </c>
       <c r="F147" t="n">
-        <v>0.841401990225</v>
+        <v>0.96412917697</v>
       </c>
       <c r="G147" t="n">
-        <v>0.964130563799</v>
+        <v>0.964130563798</v>
       </c>
       <c r="H147" t="n">
-        <v>0.122728573574</v>
+        <v>1.38682833406e-06</v>
       </c>
     </row>
     <row r="148" spans="1:10">
@@ -3570,13 +3570,13 @@
         <v>158</v>
       </c>
       <c r="F148" t="n">
-        <v>1.26831703123</v>
+        <v>1.21107831795</v>
       </c>
       <c r="G148" t="n">
         <v>1.21438575668</v>
       </c>
       <c r="H148" t="n">
-        <v>-0.0539312745528</v>
+        <v>0.0033074387267</v>
       </c>
     </row>
     <row r="149" spans="1:10">
@@ -3584,13 +3584,13 @@
         <v>85</v>
       </c>
       <c r="F149" t="n">
-        <v>0.9816446905590001</v>
+        <v>0.959369531904</v>
       </c>
       <c r="G149" t="n">
-        <v>0.96512759644</v>
+        <v>0.965127596439</v>
       </c>
       <c r="H149" t="n">
-        <v>-0.0165170941193</v>
+        <v>0.00575806453528</v>
       </c>
     </row>
     <row r="150" spans="1:10">
@@ -3598,13 +3598,13 @@
         <v>159</v>
       </c>
       <c r="F150" t="n">
-        <v>1.26831703123</v>
+        <v>1.21107831795</v>
       </c>
       <c r="G150" t="n">
         <v>1.21438575668</v>
       </c>
       <c r="H150" t="n">
-        <v>-0.0539312745528</v>
+        <v>0.0033074387267</v>
       </c>
     </row>
     <row r="151" spans="1:10">
@@ -3612,13 +3612,13 @@
         <v>160</v>
       </c>
       <c r="F151" t="n">
-        <v>0.841401990225</v>
+        <v>0.96412917697</v>
       </c>
       <c r="G151" t="n">
-        <v>0.964130563799</v>
+        <v>0.964130563798</v>
       </c>
       <c r="H151" t="n">
-        <v>0.122728573574</v>
+        <v>1.38682833406e-06</v>
       </c>
     </row>
     <row r="152" spans="1:10">
@@ -3626,13 +3626,13 @@
         <v>161</v>
       </c>
       <c r="F152" t="n">
-        <v>1.28854055192</v>
+        <v>1.25607737494</v>
       </c>
       <c r="G152" t="n">
         <v>1.25027893175</v>
       </c>
       <c r="H152" t="n">
-        <v>-0.0382616201686</v>
+        <v>-0.00579844318911</v>
       </c>
     </row>
     <row r="153" spans="1:10">
@@ -3640,13 +3640,13 @@
         <v>162</v>
       </c>
       <c r="F153" t="n">
-        <v>0.704318821746</v>
+        <v>0.710320073036</v>
       </c>
       <c r="G153" t="n">
-        <v>0.687952522256</v>
+        <v>0.687952522255</v>
       </c>
       <c r="H153" t="n">
-        <v>-0.0163662994904</v>
+        <v>-0.0223675507807</v>
       </c>
     </row>
     <row r="154" spans="1:10">
@@ -3654,13 +3654,13 @@
         <v>86</v>
       </c>
       <c r="F154" t="n">
-        <v>0.6023024218950001</v>
+        <v>0.587178731796</v>
       </c>
       <c r="G154" t="n">
         <v>0.559335311573</v>
       </c>
       <c r="H154" t="n">
-        <v>-0.042967110322</v>
+        <v>-0.0278434202232</v>
       </c>
     </row>
     <row r="155" spans="1:10">
@@ -3668,13 +3668,13 @@
         <v>88</v>
       </c>
       <c r="F155" t="n">
-        <v>0.6023024218950001</v>
+        <v>0.587178731796</v>
       </c>
       <c r="G155" t="n">
         <v>0.559335311573</v>
       </c>
       <c r="H155" t="n">
-        <v>-0.042967110322</v>
+        <v>-0.0278434202232</v>
       </c>
     </row>
     <row r="156" spans="1:10">
@@ -3682,13 +3682,13 @@
         <v>163</v>
       </c>
       <c r="F156" t="n">
-        <v>0.79874422439</v>
+        <v>0.794637782529</v>
       </c>
       <c r="G156" t="n">
         <v>0.789649851632</v>
       </c>
       <c r="H156" t="n">
-        <v>-0.00909437275752</v>
+        <v>-0.00498793089686</v>
       </c>
     </row>
     <row r="157" spans="1:10">
@@ -3696,13 +3696,13 @@
         <v>164</v>
       </c>
       <c r="F157" t="n">
-        <v>1.2189248262</v>
+        <v>1.17961904074</v>
       </c>
       <c r="G157" t="n">
         <v>1.17151335312</v>
       </c>
       <c r="H157" t="n">
-        <v>-0.0474114730836</v>
+        <v>-0.00810568762413</v>
       </c>
     </row>
     <row r="158" spans="1:10">
@@ -3710,13 +3710,13 @@
         <v>165</v>
       </c>
       <c r="F158" t="n">
-        <v>0.808964073345</v>
+        <v>0.812996433907</v>
       </c>
       <c r="G158" t="n">
         <v>0.831525222552</v>
       </c>
       <c r="H158" t="n">
-        <v>0.0225611492074</v>
+        <v>0.018528788645</v>
       </c>
     </row>
     <row r="159" spans="1:10">
@@ -3724,13 +3724,13 @@
         <v>166</v>
       </c>
       <c r="F159" t="n">
-        <v>1.26817403424</v>
+        <v>1.21638315689</v>
       </c>
       <c r="G159" t="n">
         <v>1.20541246291</v>
       </c>
       <c r="H159" t="n">
-        <v>-0.0627615713313</v>
+        <v>-0.0109706939818</v>
       </c>
     </row>
     <row r="160" spans="1:10">
@@ -3738,13 +3738,13 @@
         <v>167</v>
       </c>
       <c r="F160" t="n">
-        <v>0.808964073345</v>
+        <v>0.812996433907</v>
       </c>
       <c r="G160" t="n">
         <v>0.831525222552</v>
       </c>
       <c r="H160" t="n">
-        <v>0.0225611492074</v>
+        <v>0.018528788645</v>
       </c>
     </row>
     <row r="161" spans="1:10">
@@ -3752,13 +3752,13 @@
         <v>89</v>
       </c>
       <c r="F161" t="n">
-        <v>1.2189248262</v>
+        <v>1.17961904074</v>
       </c>
       <c r="G161" t="n">
         <v>1.17151335312</v>
       </c>
       <c r="H161" t="n">
-        <v>-0.0474114730836</v>
+        <v>-0.00810568762413</v>
       </c>
     </row>
     <row r="162" spans="1:10">
@@ -3766,13 +3766,13 @@
         <v>168</v>
       </c>
       <c r="F162" t="n">
-        <v>0.79874422439</v>
+        <v>0.794637782529</v>
       </c>
       <c r="G162" t="n">
         <v>0.789649851632</v>
       </c>
       <c r="H162" t="n">
-        <v>-0.00909437275752</v>
+        <v>-0.00498793089686</v>
       </c>
     </row>
     <row r="163" spans="1:10">
@@ -3780,13 +3780,13 @@
         <v>169</v>
       </c>
       <c r="F163" t="n">
-        <v>0.6023024218950001</v>
+        <v>0.587178731796</v>
       </c>
       <c r="G163" t="n">
         <v>0.559335311573</v>
       </c>
       <c r="H163" t="n">
-        <v>-0.042967110322</v>
+        <v>-0.0278434202232</v>
       </c>
     </row>
     <row r="164" spans="1:10">
@@ -3794,13 +3794,13 @@
         <v>91</v>
       </c>
       <c r="F164" t="n">
-        <v>0.535144377296</v>
+        <v>0.529556305049</v>
       </c>
       <c r="G164" t="n">
-        <v>0.527430267063</v>
+        <v>0.527430267062</v>
       </c>
       <c r="H164" t="n">
-        <v>-0.0077141102334</v>
+        <v>-0.00212603798662</v>
       </c>
     </row>
     <row r="165" spans="1:10">
@@ -3808,13 +3808,13 @@
         <v>170</v>
       </c>
       <c r="F165" t="n">
-        <v>0.668722915361</v>
+        <v>0.654348782905</v>
       </c>
       <c r="G165" t="n">
         <v>0.657044510386</v>
       </c>
       <c r="H165" t="n">
-        <v>-0.0116784049749</v>
+        <v>0.00269572748083</v>
       </c>
     </row>
     <row r="166" spans="1:10">
@@ -3822,13 +3822,13 @@
         <v>171</v>
       </c>
       <c r="F166" t="n">
-        <v>0.763783561305</v>
+        <v>0.732502288576</v>
       </c>
       <c r="G166" t="n">
         <v>0.736807121662</v>
       </c>
       <c r="H166" t="n">
-        <v>-0.0269764396429</v>
+        <v>0.00430483308581</v>
       </c>
     </row>
     <row r="167" spans="1:10">
@@ -3836,13 +3836,13 @@
         <v>92</v>
       </c>
       <c r="F167" t="n">
-        <v>0.711460745668</v>
+        <v>0.710737131903</v>
       </c>
       <c r="G167" t="n">
         <v>0.712878338279</v>
       </c>
       <c r="H167" t="n">
-        <v>0.00141759261132</v>
+        <v>0.00214120637602</v>
       </c>
     </row>
     <row r="168" spans="1:10">
@@ -3850,13 +3850,13 @@
         <v>172</v>
       </c>
       <c r="F168" t="n">
-        <v>0.763783561305</v>
+        <v>0.732502288576</v>
       </c>
       <c r="G168" t="n">
         <v>0.736807121662</v>
       </c>
       <c r="H168" t="n">
-        <v>-0.0269764396429</v>
+        <v>0.00430483308581</v>
       </c>
     </row>
     <row r="169" spans="1:10">
@@ -3864,13 +3864,13 @@
         <v>173</v>
       </c>
       <c r="F169" t="n">
-        <v>0.668722915361</v>
+        <v>0.654348782905</v>
       </c>
       <c r="G169" t="n">
         <v>0.657044510386</v>
       </c>
       <c r="H169" t="n">
-        <v>-0.0116784049749</v>
+        <v>0.00269572748083</v>
       </c>
     </row>
     <row r="170" spans="1:10">
@@ -3878,13 +3878,13 @@
         <v>174</v>
       </c>
       <c r="F170" t="n">
-        <v>0.535144377296</v>
+        <v>0.529556305049</v>
       </c>
       <c r="G170" t="n">
-        <v>0.527430267063</v>
+        <v>0.527430267062</v>
       </c>
       <c r="H170" t="n">
-        <v>-0.0077141102334</v>
+        <v>-0.00212603798662</v>
       </c>
     </row>
   </sheetData>
